--- a/ym2612 Frequency Block Tuning.xlsx
+++ b/ym2612 Frequency Block Tuning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="32">
   <si>
     <t>Octave Name</t>
   </si>
@@ -239,23 +239,34 @@
     <t>Block</t>
   </si>
   <si>
-    <t>Frequency</t>
+    <t>n/a</t>
   </si>
   <si>
-    <t>F-Number</t>
+    <t>11-bit Fnumber HEX</t>
   </si>
   <si>
-    <t>n/a</t>
+    <t>3-bit Octave Block HEX</t>
+  </si>
+  <si>
+    <t>F-Number DEC</t>
+  </si>
+  <si>
+    <t>Final Frequency Value HEX</t>
+  </si>
+  <si>
+    <t>Clock Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="&quot;0x&quot;0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +318,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -343,8 +364,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,8 +386,14 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -365,6 +402,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -373,6 +415,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -702,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -717,14 +764,16 @@
     <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="10" width="13.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="5"/>
-    <col min="12" max="12" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,18 +795,27 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -779,18 +837,20 @@
       <c r="G2" s="3">
         <v>-6900</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="H2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="2">
         <f>2^20</f>
         <v>1048576</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>8000000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17">
+    <row r="3" spans="1:14" ht="17">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -812,11 +872,13 @@
       <c r="G3" s="3">
         <v>-6800</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -838,11 +900,13 @@
       <c r="G4" s="3">
         <v>-6700</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17">
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="17">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -864,11 +928,13 @@
       <c r="G5" s="3">
         <v>-6600</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="H5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -890,11 +956,13 @@
       <c r="G6" s="3">
         <v>-6500</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -916,11 +984,13 @@
       <c r="G7" s="3">
         <v>-6400</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17">
+      <c r="H7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="17">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -942,11 +1012,13 @@
       <c r="G8" s="3">
         <v>-6300</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -968,11 +1040,13 @@
       <c r="G9" s="3">
         <v>-6200</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17">
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="17">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -994,11 +1068,13 @@
       <c r="G10" s="3">
         <v>-6100</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1020,11 +1096,13 @@
       <c r="G11" s="3">
         <v>-6000</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17">
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="17">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1046,11 +1124,13 @@
       <c r="G12" s="3">
         <v>-5900</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1072,11 +1152,13 @@
       <c r="G13" s="3">
         <v>-5800</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="17">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1098,12 +1180,24 @@
       <c r="G14" s="3">
         <v>-5700</v>
       </c>
-      <c r="I14" s="6">
-        <f>((144*F14*(2^20))/L$2)/2^(B14)</f>
-        <v>308.62607485595817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17">
+      <c r="H14" s="6">
+        <f>((144*F14*(2^20))/M$2)/2^(B14-1)</f>
+        <v>617.25214971191633</v>
+      </c>
+      <c r="I14" s="9" t="str">
+        <f>DEC2HEX(B14,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="J14" s="8" t="str">
+        <f>DEC2HEX(H14,4)</f>
+        <v>0269</v>
+      </c>
+      <c r="K14" s="13" t="str">
+        <f>DEC2HEX(HEX2DEC(I14)+HEX2DEC(J14),4)</f>
+        <v>0269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1125,12 +1219,24 @@
       <c r="G15" s="3">
         <v>-5600</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" ref="I15:I25" si="0">((144*F15*(2^20))/L$2)/2^(B15)</f>
-        <v>326.97793626746392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="6">
+        <f>((144*F15*(2^20))/M$2)/2^(B15-1)</f>
+        <v>653.95587253492783</v>
+      </c>
+      <c r="I15" s="9" t="str">
+        <f t="shared" ref="I15:I78" si="0">DEC2HEX(B15,4)</f>
+        <v>0000</v>
+      </c>
+      <c r="J15" s="8" t="str">
+        <f t="shared" ref="J15:J78" si="1">DEC2HEX(H15,4)</f>
+        <v>028D</v>
+      </c>
+      <c r="K15" s="13" t="str">
+        <f t="shared" ref="K15:K78" si="2">DEC2HEX(HEX2DEC(I15)+HEX2DEC(J15),4)</f>
+        <v>028D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1152,12 +1258,24 @@
       <c r="G16" s="3">
         <v>-5500</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>346.42105614351726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17">
+      <c r="H16" s="6">
+        <f>((144*F16*(2^20))/M$2)/2^(B16-1)</f>
+        <v>692.84211228703452</v>
+      </c>
+      <c r="I16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02B4</v>
+      </c>
+      <c r="K16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02B4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1179,12 +1297,24 @@
       <c r="G17" s="3">
         <v>-5400</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>367.02032409321805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="H17" s="6">
+        <f>((144*F17*(2^20))/M$2)/2^(B17-1)</f>
+        <v>734.0406481864361</v>
+      </c>
+      <c r="I17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02DE</v>
+      </c>
+      <c r="K17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02DE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1206,12 +1336,24 @@
       <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>388.84448825801445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="H18" s="6">
+        <f>((144*F18*(2^20))/M$2)/2^(B18-1)</f>
+        <v>777.6889765160289</v>
+      </c>
+      <c r="I18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0309</v>
+      </c>
+      <c r="K18" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1233,12 +1375,24 @@
       <c r="G19" s="3">
         <v>-5200</v>
       </c>
-      <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>411.96638475418337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17">
+      <c r="H19" s="6">
+        <f>((144*F19*(2^20))/M$2)/2^(B19-1)</f>
+        <v>823.93276950836673</v>
+      </c>
+      <c r="I19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0337</v>
+      </c>
+      <c r="K19" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1260,12 +1414,24 @@
       <c r="G20" s="3">
         <v>-5100</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>436.46318076336541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H20" s="6">
+        <f>((144*F20*(2^20))/M$2)/2^(B20-1)</f>
+        <v>872.92636152673083</v>
+      </c>
+      <c r="I20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0368</v>
+      </c>
+      <c r="K20" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -1287,12 +1453,24 @@
       <c r="G21" s="3">
         <v>-5000</v>
       </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>462.41663206576624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="17">
+      <c r="H21" s="6">
+        <f>((144*F21*(2^20))/M$2)/2^(B21-1)</f>
+        <v>924.83326413153247</v>
+      </c>
+      <c r="I21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>039C</v>
+      </c>
+      <c r="K21" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>039C</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1314,12 +1492,24 @@
       <c r="G22" s="3">
         <v>-4900</v>
       </c>
-      <c r="I22" s="6">
-        <f t="shared" si="0"/>
-        <v>489.91335588990813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="H22" s="6">
+        <f>((144*F22*(2^20))/M$2)/2^(B22-1)</f>
+        <v>979.82671177981626</v>
+      </c>
+      <c r="I22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>03D3</v>
+      </c>
+      <c r="K22" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>03D3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,12 +1531,24 @@
       <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>519.04512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="17">
+      <c r="H23" s="6">
+        <f>((144*F23*(2^20))/M$2)/2^(B23-1)</f>
+        <v>1038.09024</v>
+      </c>
+      <c r="I23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <f>DEC2HEX(H23,4)</f>
+        <v>040E</v>
+      </c>
+      <c r="K23" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>040E</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1368,12 +1570,24 @@
       <c r="G24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>549.90914894765763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="6">
+        <f>((144*F24*(2^20))/M$2)/2^(B24-1)</f>
+        <v>1099.8182978953153</v>
+      </c>
+      <c r="I24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>044B</v>
+      </c>
+      <c r="K24" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>044B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1395,12 +1609,24 @@
       <c r="G25" s="3">
         <v>-4600</v>
       </c>
-      <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>582.6084485600378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="6">
+        <f>((144*F25*(2^20))/M$2)/2^(B25-1)</f>
+        <v>1165.2168971200756</v>
+      </c>
+      <c r="I25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0000</v>
+      </c>
+      <c r="J25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>048D</v>
+      </c>
+      <c r="K25" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>048D</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1416,18 +1642,30 @@
       <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="12">
         <v>32.703195662600002</v>
       </c>
       <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="6">
-        <f t="shared" ref="I15:I78" si="1">((144*F26*(2^20))/L$2)/2^(B26-1)</f>
+      <c r="H26" s="6">
+        <f>((144*F26*(2^20))/M$2)/2^(B26-1)</f>
         <v>617.25214971191633</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="17">
+      <c r="I26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0269</v>
+      </c>
+      <c r="K26" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>026A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1449,12 +1687,24 @@
       <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="1"/>
+      <c r="H27" s="6">
+        <f>((144*F27*(2^20))/M$2)/2^(B27-1)</f>
         <v>653.95587253304029</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>028D</v>
+      </c>
+      <c r="K27" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>028E</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1476,12 +1726,24 @@
       <c r="G28" s="3">
         <v>-4300</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="1"/>
+      <c r="H28" s="6">
+        <f>((144*F28*(2^20))/M$2)/2^(B28-1)</f>
         <v>692.84211228892195</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="17">
+      <c r="I28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02B4</v>
+      </c>
+      <c r="K28" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02B5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1503,12 +1765,24 @@
       <c r="G29" s="3">
         <v>-4200</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="1"/>
+      <c r="H29" s="6">
+        <f>((144*F29*(2^20))/M$2)/2^(B29-1)</f>
         <v>734.04064818832342</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02DE</v>
+      </c>
+      <c r="K29" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02DF</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1530,12 +1804,24 @@
       <c r="G30" s="3">
         <v>-4100</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="1"/>
+      <c r="H30" s="6">
+        <f>((144*F30*(2^20))/M$2)/2^(B30-1)</f>
         <v>777.68897651414147</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0309</v>
+      </c>
+      <c r="K30" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>030A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1557,12 +1843,24 @@
       <c r="G31" s="3">
         <v>-4000</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="1"/>
+      <c r="H31" s="6">
+        <f>((144*F31*(2^20))/M$2)/2^(B31-1)</f>
         <v>823.9327695064793</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="17">
+      <c r="I31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0337</v>
+      </c>
+      <c r="K31" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1584,12 +1882,24 @@
       <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="1"/>
+      <c r="H32" s="6">
+        <f>((144*F32*(2^20))/M$2)/2^(B32-1)</f>
         <v>872.92636152673083</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0368</v>
+      </c>
+      <c r="K32" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="17">
       <c r="A33" s="2" t="s">
         <v>19</v>
       </c>
@@ -1611,12 +1921,24 @@
       <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="1"/>
+      <c r="H33" s="6">
+        <f>((144*F33*(2^20))/M$2)/2^(B33-1)</f>
         <v>924.83326412964504</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17">
+      <c r="I33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>039C</v>
+      </c>
+      <c r="K33" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>039D</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1638,12 +1960,24 @@
       <c r="G34" s="3">
         <v>-3700</v>
       </c>
-      <c r="I34" s="6">
-        <f t="shared" si="1"/>
+      <c r="H34" s="6">
+        <f>((144*F34*(2^20))/M$2)/2^(B34-1)</f>
         <v>979.82671178170358</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>03D3</v>
+      </c>
+      <c r="K34" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>03D4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1665,12 +1999,24 @@
       <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="1"/>
+      <c r="H35" s="6">
+        <f>((144*F35*(2^20))/M$2)/2^(B35-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="17">
+      <c r="I35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>040E</v>
+      </c>
+      <c r="K35" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>040F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="17">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -1692,12 +2038,24 @@
       <c r="G36" s="3">
         <v>-3500</v>
       </c>
-      <c r="I36" s="6">
-        <f t="shared" si="1"/>
+      <c r="H36" s="6">
+        <f>((144*F36*(2^20))/M$2)/2^(B36-1)</f>
         <v>1099.8182978953153</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>044B</v>
+      </c>
+      <c r="K36" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>044C</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="17">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1719,12 +2077,24 @@
       <c r="G37" s="3">
         <v>-3400</v>
       </c>
-      <c r="I37" s="6">
-        <f t="shared" si="1"/>
+      <c r="H37" s="6">
+        <f>((144*F37*(2^20))/M$2)/2^(B37-1)</f>
         <v>1165.2168971200756</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001</v>
+      </c>
+      <c r="J37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>048D</v>
+      </c>
+      <c r="K37" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>048E</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="17">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
@@ -1746,12 +2116,24 @@
       <c r="G38" s="3">
         <v>-3300</v>
       </c>
-      <c r="I38" s="6">
-        <f t="shared" si="1"/>
+      <c r="H38" s="6">
+        <f>((144*F38*(2^20))/M$2)/2^(B38-1)</f>
         <v>617.2521497109725</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="17">
+      <c r="I38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0269</v>
+      </c>
+      <c r="K38" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>026B</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="17">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -1773,12 +2155,24 @@
       <c r="G39" s="3">
         <v>-3200</v>
       </c>
-      <c r="I39" s="6">
-        <f t="shared" si="1"/>
+      <c r="H39" s="6">
+        <f>((144*F39*(2^20))/M$2)/2^(B39-1)</f>
         <v>653.95587253304029</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>028D</v>
+      </c>
+      <c r="K39" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>028F</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="17">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -1800,12 +2194,24 @@
       <c r="G40" s="3">
         <v>-3100</v>
       </c>
-      <c r="I40" s="6">
-        <f t="shared" si="1"/>
+      <c r="H40" s="6">
+        <f>((144*F40*(2^20))/M$2)/2^(B40-1)</f>
         <v>692.84211228892195</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="17">
+      <c r="I40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02B4</v>
+      </c>
+      <c r="K40" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02B6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="17">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -1827,12 +2233,24 @@
       <c r="G41" s="3">
         <v>-3000</v>
       </c>
-      <c r="I41" s="6">
-        <f t="shared" si="1"/>
+      <c r="H41" s="6">
+        <f>((144*F41*(2^20))/M$2)/2^(B41-1)</f>
         <v>734.04064818737959</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02DE</v>
+      </c>
+      <c r="K41" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02E0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="17">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -1854,12 +2272,24 @@
       <c r="G42" s="3">
         <v>-2900</v>
       </c>
-      <c r="I42" s="6">
-        <f t="shared" si="1"/>
+      <c r="H42" s="6">
+        <f>((144*F42*(2^20))/M$2)/2^(B42-1)</f>
         <v>777.68897651414147</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0309</v>
+      </c>
+      <c r="K42" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>030B</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="17">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1881,12 +2311,24 @@
       <c r="G43" s="3">
         <v>-2800</v>
       </c>
-      <c r="I43" s="6">
-        <f t="shared" si="1"/>
+      <c r="H43" s="6">
+        <f>((144*F43*(2^20))/M$2)/2^(B43-1)</f>
         <v>823.93276950742302</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="17">
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0337</v>
+      </c>
+      <c r="K43" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="17">
       <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
@@ -1908,12 +2350,24 @@
       <c r="G44" s="3">
         <v>-2700</v>
       </c>
-      <c r="I44" s="6">
-        <f t="shared" si="1"/>
+      <c r="H44" s="6">
+        <f>((144*F44*(2^20))/M$2)/2^(B44-1)</f>
         <v>872.92636152578712</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0368</v>
+      </c>
+      <c r="K44" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>036A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="17">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -1935,12 +2389,24 @@
       <c r="G45" s="3">
         <v>-2600</v>
       </c>
-      <c r="I45" s="6">
-        <f t="shared" si="1"/>
+      <c r="H45" s="6">
+        <f>((144*F45*(2^20))/M$2)/2^(B45-1)</f>
         <v>924.83326412964504</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="17">
+      <c r="I45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>039C</v>
+      </c>
+      <c r="K45" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>039E</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="17">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1962,12 +2428,24 @@
       <c r="G46" s="3">
         <v>-2500</v>
       </c>
-      <c r="I46" s="6">
-        <f t="shared" si="1"/>
+      <c r="H46" s="6">
+        <f>((144*F46*(2^20))/M$2)/2^(B46-1)</f>
         <v>979.82671178170358</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>03D3</v>
+      </c>
+      <c r="K46" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>03D5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="17">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -1989,12 +2467,24 @@
       <c r="G47" s="3">
         <v>-2400</v>
       </c>
-      <c r="I47" s="6">
-        <f t="shared" si="1"/>
+      <c r="H47" s="6">
+        <f>((144*F47*(2^20))/M$2)/2^(B47-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="17">
+      <c r="I47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>040E</v>
+      </c>
+      <c r="K47" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="17">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2016,12 +2506,24 @@
       <c r="G48" s="3">
         <v>-2300</v>
       </c>
-      <c r="I48" s="6">
-        <f t="shared" si="1"/>
+      <c r="H48" s="6">
+        <f>((144*F48*(2^20))/M$2)/2^(B48-1)</f>
         <v>1099.8182978943712</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>044B</v>
+      </c>
+      <c r="K48" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>044D</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="17">
       <c r="A49" s="2" t="s">
         <v>20</v>
       </c>
@@ -2043,12 +2545,24 @@
       <c r="G49" s="3">
         <v>-2200</v>
       </c>
-      <c r="I49" s="6">
-        <f t="shared" si="1"/>
+      <c r="H49" s="6">
+        <f>((144*F49*(2^20))/M$2)/2^(B49-1)</f>
         <v>1165.2168971200756</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0002</v>
+      </c>
+      <c r="J49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>048D</v>
+      </c>
+      <c r="K49" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>048F</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="17">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2070,12 +2584,24 @@
       <c r="G50" s="3">
         <v>-2100</v>
       </c>
-      <c r="I50" s="6">
-        <f t="shared" si="1"/>
+      <c r="H50" s="6">
+        <f>((144*F50*(2^20))/M$2)/2^(B50-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="17">
+      <c r="I50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0269</v>
+      </c>
+      <c r="K50" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>026C</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="17">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -2097,12 +2623,24 @@
       <c r="G51" s="3">
         <v>-2000</v>
       </c>
-      <c r="I51" s="6">
-        <f t="shared" si="1"/>
+      <c r="H51" s="6">
+        <f>((144*F51*(2^20))/M$2)/2^(B51-1)</f>
         <v>653.95587253304029</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>028D</v>
+      </c>
+      <c r="K51" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="17">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -2124,12 +2662,24 @@
       <c r="G52" s="3">
         <v>-1900</v>
       </c>
-      <c r="I52" s="6">
-        <f t="shared" si="1"/>
+      <c r="H52" s="6">
+        <f>((144*F52*(2^20))/M$2)/2^(B52-1)</f>
         <v>692.84211228845027</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="17">
+      <c r="I52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02B4</v>
+      </c>
+      <c r="K52" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02B7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -2151,12 +2701,24 @@
       <c r="G53" s="3">
         <v>-1800</v>
       </c>
-      <c r="I53" s="6">
-        <f t="shared" si="1"/>
+      <c r="H53" s="6">
+        <f>((144*F53*(2^20))/M$2)/2^(B53-1)</f>
         <v>734.04064818737959</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02DE</v>
+      </c>
+      <c r="K53" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02E1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="17">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -2178,12 +2740,24 @@
       <c r="G54" s="3">
         <v>-1700</v>
       </c>
-      <c r="I54" s="6">
-        <f t="shared" si="1"/>
+      <c r="H54" s="6">
+        <f>((144*F54*(2^20))/M$2)/2^(B54-1)</f>
         <v>777.68897651414147</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0309</v>
+      </c>
+      <c r="K54" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>030C</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="17">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -2205,12 +2779,24 @@
       <c r="G55" s="3">
         <v>-1600</v>
       </c>
-      <c r="I55" s="6">
-        <f t="shared" si="1"/>
+      <c r="H55" s="6">
+        <f>((144*F55*(2^20))/M$2)/2^(B55-1)</f>
         <v>823.93276950695122</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="17">
+      <c r="I55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0337</v>
+      </c>
+      <c r="K55" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>033A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="17">
       <c r="A56" s="2" t="s">
         <v>20</v>
       </c>
@@ -2232,12 +2818,24 @@
       <c r="G56" s="3">
         <v>-1500</v>
       </c>
-      <c r="I56" s="6">
-        <f t="shared" si="1"/>
+      <c r="H56" s="6">
+        <f>((144*F56*(2^20))/M$2)/2^(B56-1)</f>
         <v>872.92636152578712</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0368</v>
+      </c>
+      <c r="K56" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>036B</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="17">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -2259,12 +2857,24 @@
       <c r="G57" s="3">
         <v>-1400</v>
       </c>
-      <c r="I57" s="6">
-        <f t="shared" si="1"/>
+      <c r="H57" s="6">
+        <f>((144*F57*(2^20))/M$2)/2^(B57-1)</f>
         <v>924.83326413011673</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="17">
+      <c r="I57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>039C</v>
+      </c>
+      <c r="K57" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>039F</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="17">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -2286,12 +2896,24 @@
       <c r="G58" s="3">
         <v>-1300</v>
       </c>
-      <c r="I58" s="6">
-        <f t="shared" si="1"/>
+      <c r="H58" s="6">
+        <f>((144*F58*(2^20))/M$2)/2^(B58-1)</f>
         <v>979.82671178170358</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>03D3</v>
+      </c>
+      <c r="K58" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>03D6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="17">
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
@@ -2313,12 +2935,24 @@
       <c r="G59" s="3">
         <v>-1200</v>
       </c>
-      <c r="I59" s="6">
-        <f t="shared" si="1"/>
+      <c r="H59" s="6">
+        <f>((144*F59*(2^20))/M$2)/2^(B59-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="17">
+      <c r="I59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>040E</v>
+      </c>
+      <c r="K59" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17">
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
@@ -2340,12 +2974,24 @@
       <c r="G60" s="3">
         <v>-1100</v>
       </c>
-      <c r="I60" s="6">
-        <f t="shared" si="1"/>
+      <c r="H60" s="6">
+        <f>((144*F60*(2^20))/M$2)/2^(B60-1)</f>
         <v>1099.8182978943712</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="I60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>044B</v>
+      </c>
+      <c r="K60" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>044E</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="17">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -2367,12 +3013,24 @@
       <c r="G61" s="3">
         <v>-1000</v>
       </c>
-      <c r="I61" s="6">
-        <f t="shared" si="1"/>
+      <c r="H61" s="6">
+        <f>((144*F61*(2^20))/M$2)/2^(B61-1)</f>
         <v>1165.2168971205479</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="I61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0003</v>
+      </c>
+      <c r="J61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>048D</v>
+      </c>
+      <c r="K61" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="17">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -2394,12 +3052,24 @@
       <c r="G62" s="2">
         <v>-900</v>
       </c>
-      <c r="I62" s="6">
-        <f t="shared" si="1"/>
+      <c r="H62" s="6">
+        <f>((144*F62*(2^20))/M$2)/2^(B62-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="17">
+      <c r="I62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0269</v>
+      </c>
+      <c r="K62" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>026D</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="17">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -2421,12 +3091,24 @@
       <c r="G63" s="2">
         <v>-800</v>
       </c>
-      <c r="I63" s="6">
-        <f t="shared" si="1"/>
+      <c r="H63" s="6">
+        <f>((144*F63*(2^20))/M$2)/2^(B63-1)</f>
         <v>653.95587253327619</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>028D</v>
+      </c>
+      <c r="K63" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="17">
       <c r="A64" s="2" t="s">
         <v>21</v>
       </c>
@@ -2448,12 +3130,24 @@
       <c r="G64" s="2">
         <v>-700</v>
       </c>
-      <c r="I64" s="6">
-        <f t="shared" si="1"/>
+      <c r="H64" s="6">
+        <f>((144*F64*(2^20))/M$2)/2^(B64-1)</f>
         <v>692.84211228845027</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="17">
+      <c r="I64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02B4</v>
+      </c>
+      <c r="K64" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02B8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="17">
       <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
@@ -2475,12 +3169,24 @@
       <c r="G65" s="2">
         <v>-600</v>
       </c>
-      <c r="I65" s="6">
-        <f t="shared" si="1"/>
+      <c r="H65" s="6">
+        <f>((144*F65*(2^20))/M$2)/2^(B65-1)</f>
         <v>734.0406481876156</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02DE</v>
+      </c>
+      <c r="K65" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02E2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="17">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -2502,12 +3208,24 @@
       <c r="G66" s="2">
         <v>-500</v>
       </c>
-      <c r="I66" s="6">
-        <f t="shared" si="1"/>
+      <c r="H66" s="6">
+        <f>((144*F66*(2^20))/M$2)/2^(B66-1)</f>
         <v>777.68897651437737</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="I66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0309</v>
+      </c>
+      <c r="K66" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>030D</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="17">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -2529,12 +3247,24 @@
       <c r="G67" s="2">
         <v>-400</v>
       </c>
-      <c r="I67" s="6">
-        <f t="shared" si="1"/>
+      <c r="H67" s="6">
+        <f>((144*F67*(2^20))/M$2)/2^(B67-1)</f>
         <v>823.93276950695122</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="17">
+      <c r="I67" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0337</v>
+      </c>
+      <c r="K67" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>033B</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="17">
       <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
@@ -2556,12 +3286,24 @@
       <c r="G68" s="2">
         <v>-300</v>
       </c>
-      <c r="I68" s="6">
-        <f t="shared" si="1"/>
+      <c r="H68" s="6">
+        <f>((144*F68*(2^20))/M$2)/2^(B68-1)</f>
         <v>872.92636152578712</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0368</v>
+      </c>
+      <c r="K68" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>036C</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="17">
       <c r="A69" s="2" t="s">
         <v>22</v>
       </c>
@@ -2583,12 +3325,24 @@
       <c r="G69" s="2">
         <v>-200</v>
       </c>
-      <c r="I69" s="6">
-        <f t="shared" si="1"/>
+      <c r="H69" s="6">
+        <f>((144*F69*(2^20))/M$2)/2^(B69-1)</f>
         <v>924.83326412988094</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="17">
+      <c r="I69" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>039C</v>
+      </c>
+      <c r="K69" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>03A0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="17">
       <c r="A70" s="2" t="s">
         <v>22</v>
       </c>
@@ -2610,12 +3364,24 @@
       <c r="G70" s="2">
         <v>-100</v>
       </c>
-      <c r="I70" s="6">
-        <f t="shared" si="1"/>
+      <c r="H70" s="6">
+        <f>((144*F70*(2^20))/M$2)/2^(B70-1)</f>
         <v>979.82671178146768</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>03D3</v>
+      </c>
+      <c r="K70" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>03D7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="17">
       <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
@@ -2637,12 +3403,24 @@
       <c r="G71" s="2">
         <v>0</v>
       </c>
-      <c r="I71" s="6">
-        <f t="shared" si="1"/>
+      <c r="H71" s="6">
+        <f>((144*F71*(2^20))/M$2)/2^(B71-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="17">
+      <c r="I71" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>040E</v>
+      </c>
+      <c r="K71" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="17">
       <c r="A72" s="2" t="s">
         <v>22</v>
       </c>
@@ -2664,12 +3442,24 @@
       <c r="G72" s="2">
         <v>100</v>
       </c>
-      <c r="I72" s="6">
-        <f t="shared" si="1"/>
+      <c r="H72" s="6">
+        <f>((144*F72*(2^20))/M$2)/2^(B72-1)</f>
         <v>1099.8182978946072</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="I72" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>044B</v>
+      </c>
+      <c r="K72" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>044F</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="17">
       <c r="A73" s="2" t="s">
         <v>22</v>
       </c>
@@ -2691,12 +3481,24 @@
       <c r="G73" s="2">
         <v>200</v>
       </c>
-      <c r="I73" s="6">
-        <f t="shared" si="1"/>
+      <c r="H73" s="6">
+        <f>((144*F73*(2^20))/M$2)/2^(B73-1)</f>
         <v>1165.2168971203118</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0004</v>
+      </c>
+      <c r="J73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>048D</v>
+      </c>
+      <c r="K73" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17">
       <c r="A74" s="2" t="s">
         <v>22</v>
       </c>
@@ -2718,12 +3520,24 @@
       <c r="G74" s="2">
         <v>300</v>
       </c>
-      <c r="I74" s="6">
-        <f t="shared" si="1"/>
+      <c r="H74" s="6">
+        <f>((144*F74*(2^20))/M$2)/2^(B74-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="17">
+      <c r="I74" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="J74" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0269</v>
+      </c>
+      <c r="K74" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>026E</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="17">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -2745,12 +3559,24 @@
       <c r="G75" s="2">
         <v>400</v>
       </c>
-      <c r="I75" s="6">
-        <f t="shared" si="1"/>
+      <c r="H75" s="6">
+        <f>((144*F75*(2^20))/M$2)/2^(B75-1)</f>
         <v>653.9558725331583</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="J75" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>028D</v>
+      </c>
+      <c r="K75" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>0292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="17">
       <c r="A76" s="2" t="s">
         <v>22</v>
       </c>
@@ -2772,12 +3598,24 @@
       <c r="G76" s="2">
         <v>500</v>
       </c>
-      <c r="I76" s="6">
-        <f t="shared" si="1"/>
+      <c r="H76" s="6">
+        <f>((144*F76*(2^20))/M$2)/2^(B76-1)</f>
         <v>692.84211228845027</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="17">
+      <c r="I76" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="J76" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02B4</v>
+      </c>
+      <c r="K76" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02B9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17">
       <c r="A77" s="2" t="s">
         <v>22</v>
       </c>
@@ -2799,12 +3637,24 @@
       <c r="G77" s="2">
         <v>600</v>
       </c>
-      <c r="I77" s="6">
-        <f t="shared" si="1"/>
+      <c r="H77" s="6">
+        <f>((144*F77*(2^20))/M$2)/2^(B77-1)</f>
         <v>734.0406481876156</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="J77" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>02DE</v>
+      </c>
+      <c r="K77" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>02E3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="17">
       <c r="A78" s="2" t="s">
         <v>22</v>
       </c>
@@ -2826,12 +3676,24 @@
       <c r="G78" s="2">
         <v>700</v>
       </c>
-      <c r="I78" s="6">
-        <f t="shared" si="1"/>
+      <c r="H78" s="6">
+        <f>((144*F78*(2^20))/M$2)/2^(B78-1)</f>
         <v>777.68897651425948</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="I78" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>0005</v>
+      </c>
+      <c r="J78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0309</v>
+      </c>
+      <c r="K78" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>030E</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="17">
       <c r="A79" s="2" t="s">
         <v>22</v>
       </c>
@@ -2853,12 +3715,24 @@
       <c r="G79" s="2">
         <v>800</v>
       </c>
-      <c r="I79" s="6">
-        <f t="shared" ref="I79:I129" si="2">((144*F79*(2^20))/L$2)/2^(B79-1)</f>
+      <c r="H79" s="6">
+        <f>((144*F79*(2^20))/M$2)/2^(B79-1)</f>
         <v>823.93276950695122</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="17">
+      <c r="I79" s="9" t="str">
+        <f t="shared" ref="I79:I109" si="3">DEC2HEX(B79,4)</f>
+        <v>0005</v>
+      </c>
+      <c r="J79" s="8" t="str">
+        <f t="shared" ref="J79:J109" si="4">DEC2HEX(H79,4)</f>
+        <v>0337</v>
+      </c>
+      <c r="K79" s="13" t="str">
+        <f t="shared" ref="K79:K109" si="5">DEC2HEX(HEX2DEC(I79)+HEX2DEC(J79),4)</f>
+        <v>033C</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17">
       <c r="A80" s="2" t="s">
         <v>23</v>
       </c>
@@ -2880,12 +3754,24 @@
       <c r="G80" s="2">
         <v>900</v>
       </c>
-      <c r="I80" s="6">
-        <f t="shared" si="2"/>
+      <c r="H80" s="6">
+        <f>((144*F80*(2^20))/M$2)/2^(B80-1)</f>
         <v>872.92636152590489</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0005</v>
+      </c>
+      <c r="J80" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0368</v>
+      </c>
+      <c r="K80" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>036D</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="17">
       <c r="A81" s="2" t="s">
         <v>23</v>
       </c>
@@ -2907,12 +3793,24 @@
       <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="6">
-        <f t="shared" si="2"/>
+      <c r="H81" s="6">
+        <f>((144*F81*(2^20))/M$2)/2^(B81-1)</f>
         <v>924.83326412999895</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="17">
+      <c r="I81" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0005</v>
+      </c>
+      <c r="J81" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>039C</v>
+      </c>
+      <c r="K81" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>03A1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="17">
       <c r="A82" s="2" t="s">
         <v>23</v>
       </c>
@@ -2934,12 +3832,24 @@
       <c r="G82" s="3">
         <v>1100</v>
       </c>
-      <c r="I82" s="6">
-        <f t="shared" si="2"/>
+      <c r="H82" s="6">
+        <f>((144*F82*(2^20))/M$2)/2^(B82-1)</f>
         <v>979.82671178158569</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0005</v>
+      </c>
+      <c r="J82" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>03D3</v>
+      </c>
+      <c r="K82" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>03D8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2961,12 +3871,24 @@
       <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="6">
-        <f t="shared" si="2"/>
+      <c r="H83" s="6">
+        <f>((144*F83*(2^20))/M$2)/2^(B83-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="17">
+      <c r="I83" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0005</v>
+      </c>
+      <c r="J83" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>040E</v>
+      </c>
+      <c r="K83" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0413</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="17">
       <c r="A84" s="2" t="s">
         <v>23</v>
       </c>
@@ -2988,12 +3910,24 @@
       <c r="G84" s="3">
         <v>1300</v>
       </c>
-      <c r="I84" s="6">
-        <f t="shared" si="2"/>
+      <c r="H84" s="6">
+        <f>((144*F84*(2^20))/M$2)/2^(B84-1)</f>
         <v>1099.8182978946072</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0005</v>
+      </c>
+      <c r="J84" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>044B</v>
+      </c>
+      <c r="K84" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="17">
       <c r="A85" s="2" t="s">
         <v>23</v>
       </c>
@@ -3015,12 +3949,24 @@
       <c r="G85" s="3">
         <v>1400</v>
       </c>
-      <c r="I85" s="6">
-        <f t="shared" si="2"/>
+      <c r="H85" s="6">
+        <f>((144*F85*(2^20))/M$2)/2^(B85-1)</f>
         <v>1165.2168971203118</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0005</v>
+      </c>
+      <c r="J85" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>048D</v>
+      </c>
+      <c r="K85" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="17">
       <c r="A86" s="2" t="s">
         <v>23</v>
       </c>
@@ -3042,12 +3988,24 @@
       <c r="G86" s="3">
         <v>1500</v>
       </c>
-      <c r="I86" s="6">
-        <f t="shared" si="2"/>
+      <c r="H86" s="6">
+        <f>((144*F86*(2^20))/M$2)/2^(B86-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="17">
+      <c r="I86" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J86" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0269</v>
+      </c>
+      <c r="K86" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>026F</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17">
       <c r="A87" s="2" t="s">
         <v>23</v>
       </c>
@@ -3069,12 +4027,24 @@
       <c r="G87" s="3">
         <v>1600</v>
       </c>
-      <c r="I87" s="6">
-        <f t="shared" si="2"/>
+      <c r="H87" s="6">
+        <f>((144*F87*(2^20))/M$2)/2^(B87-1)</f>
         <v>653.95587253321719</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J87" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>028D</v>
+      </c>
+      <c r="K87" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="17">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -3096,12 +4066,24 @@
       <c r="G88" s="3">
         <v>1700</v>
       </c>
-      <c r="I88" s="6">
-        <f t="shared" si="2"/>
+      <c r="H88" s="6">
+        <f>((144*F88*(2^20))/M$2)/2^(B88-1)</f>
         <v>692.84211228845027</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="17">
+      <c r="I88" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J88" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>02B4</v>
+      </c>
+      <c r="K88" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>02BA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17">
       <c r="A89" s="2" t="s">
         <v>23</v>
       </c>
@@ -3123,12 +4105,24 @@
       <c r="G89" s="3">
         <v>1800</v>
       </c>
-      <c r="I89" s="6">
-        <f t="shared" si="2"/>
+      <c r="H89" s="6">
+        <f>((144*F89*(2^20))/M$2)/2^(B89-1)</f>
         <v>734.04064818755671</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="I89" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J89" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>02DE</v>
+      </c>
+      <c r="K89" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>02E4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="17">
       <c r="A90" s="2" t="s">
         <v>23</v>
       </c>
@@ -3150,12 +4144,24 @@
       <c r="G90" s="3">
         <v>1900</v>
       </c>
-      <c r="I90" s="6">
-        <f t="shared" si="2"/>
+      <c r="H90" s="6">
+        <f>((144*F90*(2^20))/M$2)/2^(B90-1)</f>
         <v>777.68897651431826</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="I90" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J90" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0309</v>
+      </c>
+      <c r="K90" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>030F</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="17">
       <c r="A91" s="2" t="s">
         <v>23</v>
       </c>
@@ -3177,12 +4183,24 @@
       <c r="G91" s="3">
         <v>2000</v>
       </c>
-      <c r="I91" s="6">
-        <f t="shared" si="2"/>
+      <c r="H91" s="6">
+        <f>((144*F91*(2^20))/M$2)/2^(B91-1)</f>
         <v>823.93276950695122</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="17">
+      <c r="I91" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J91" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0337</v>
+      </c>
+      <c r="K91" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>033D</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="17">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -3204,12 +4222,24 @@
       <c r="G92" s="3">
         <v>2100</v>
       </c>
-      <c r="I92" s="6">
-        <f t="shared" si="2"/>
+      <c r="H92" s="6">
+        <f>((144*F92*(2^20))/M$2)/2^(B92-1)</f>
         <v>872.926361525846</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J92" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0368</v>
+      </c>
+      <c r="K92" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>036E</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="17">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -3231,12 +4261,24 @@
       <c r="G93" s="3">
         <v>2200</v>
       </c>
-      <c r="I93" s="6">
-        <f t="shared" si="2"/>
+      <c r="H93" s="6">
+        <f>((144*F93*(2^20))/M$2)/2^(B93-1)</f>
         <v>924.83326412999895</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="17">
+      <c r="I93" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J93" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>039C</v>
+      </c>
+      <c r="K93" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>03A2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="17">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
@@ -3258,12 +4300,24 @@
       <c r="G94" s="3">
         <v>2300</v>
       </c>
-      <c r="I94" s="6">
-        <f t="shared" si="2"/>
+      <c r="H94" s="6">
+        <f>((144*F94*(2^20))/M$2)/2^(B94-1)</f>
         <v>979.82671178158569</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="I94" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J94" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>03D3</v>
+      </c>
+      <c r="K94" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>03D9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="17">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -3285,12 +4339,24 @@
       <c r="G95" s="3">
         <v>2400</v>
       </c>
-      <c r="I95" s="6">
-        <f t="shared" si="2"/>
+      <c r="H95" s="6">
+        <f>((144*F95*(2^20))/M$2)/2^(B95-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="17">
+      <c r="I95" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J95" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>040E</v>
+      </c>
+      <c r="K95" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="17">
       <c r="A96" s="2" t="s">
         <v>6</v>
       </c>
@@ -3312,12 +4378,24 @@
       <c r="G96" s="3">
         <v>2500</v>
       </c>
-      <c r="I96" s="6">
-        <f t="shared" si="2"/>
+      <c r="H96" s="6">
+        <f>((144*F96*(2^20))/M$2)/2^(B96-1)</f>
         <v>1099.8182978946072</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J96" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>044B</v>
+      </c>
+      <c r="K96" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0451</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -3339,12 +4417,24 @@
       <c r="G97" s="3">
         <v>2600</v>
       </c>
-      <c r="I97" s="6">
-        <f t="shared" si="2"/>
+      <c r="H97" s="6">
+        <f>((144*F97*(2^20))/M$2)/2^(B97-1)</f>
         <v>1165.2168971203707</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0006</v>
+      </c>
+      <c r="J97" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>048D</v>
+      </c>
+      <c r="K97" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -3366,12 +4456,24 @@
       <c r="G98" s="3">
         <v>2700</v>
       </c>
-      <c r="I98" s="6">
-        <f t="shared" si="2"/>
+      <c r="H98" s="6">
+        <f>((144*F98*(2^20))/M$2)/2^(B98-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="17">
+      <c r="I98" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J98" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0269</v>
+      </c>
+      <c r="K98" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
@@ -3393,12 +4495,24 @@
       <c r="G99" s="3">
         <v>2800</v>
       </c>
-      <c r="I99" s="6">
-        <f t="shared" si="2"/>
+      <c r="H99" s="6">
+        <f>((144*F99*(2^20))/M$2)/2^(B99-1)</f>
         <v>653.95587253321719</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="I99" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J99" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>028D</v>
+      </c>
+      <c r="K99" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="17">
       <c r="A100" s="2" t="s">
         <v>6</v>
       </c>
@@ -3420,12 +4534,24 @@
       <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="6">
-        <f t="shared" si="2"/>
+      <c r="H100" s="6">
+        <f>((144*F100*(2^20))/M$2)/2^(B100-1)</f>
         <v>692.84211228847971</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="17">
+      <c r="I100" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J100" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>02B4</v>
+      </c>
+      <c r="K100" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>02BB</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17">
       <c r="A101" s="2" t="s">
         <v>6</v>
       </c>
@@ -3447,12 +4573,24 @@
       <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="6">
-        <f t="shared" si="2"/>
+      <c r="H101" s="6">
+        <f>((144*F101*(2^20))/M$2)/2^(B101-1)</f>
         <v>734.04064818755671</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="I101" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J101" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>02DE</v>
+      </c>
+      <c r="K101" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>02E5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="17">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3474,12 +4612,24 @@
       <c r="G102" s="3">
         <v>3100</v>
       </c>
-      <c r="I102" s="6">
-        <f t="shared" si="2"/>
+      <c r="H102" s="6">
+        <f>((144*F102*(2^20))/M$2)/2^(B102-1)</f>
         <v>777.68897651431826</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="I102" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J102" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0309</v>
+      </c>
+      <c r="K102" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="17">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -3501,12 +4651,24 @@
       <c r="G103" s="3">
         <v>3200</v>
       </c>
-      <c r="I103" s="6">
-        <f t="shared" si="2"/>
+      <c r="H103" s="6">
+        <f>((144*F103*(2^20))/M$2)/2^(B103-1)</f>
         <v>823.93276950695122</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="17">
+      <c r="I103" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J103" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0337</v>
+      </c>
+      <c r="K103" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>033E</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17">
       <c r="A104" s="2" t="s">
         <v>6</v>
       </c>
@@ -3528,12 +4690,24 @@
       <c r="G104" s="3">
         <v>3300</v>
       </c>
-      <c r="I104" s="6">
-        <f t="shared" si="2"/>
+      <c r="H104" s="6">
+        <f>((144*F104*(2^20))/M$2)/2^(B104-1)</f>
         <v>872.92636152587556</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="I104" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J104" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>0368</v>
+      </c>
+      <c r="K104" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>036F</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17">
       <c r="A105" s="2" t="s">
         <v>6</v>
       </c>
@@ -3555,12 +4729,24 @@
       <c r="G105" s="3">
         <v>3400</v>
       </c>
-      <c r="I105" s="6">
-        <f t="shared" si="2"/>
+      <c r="H105" s="6">
+        <f>((144*F105*(2^20))/M$2)/2^(B105-1)</f>
         <v>924.83326412999895</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="17">
+      <c r="I105" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J105" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>039C</v>
+      </c>
+      <c r="K105" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>03A3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="17">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -3582,12 +4768,24 @@
       <c r="G106" s="3">
         <v>3500</v>
       </c>
-      <c r="I106" s="6">
-        <f t="shared" si="2"/>
+      <c r="H106" s="6">
+        <f>((144*F106*(2^20))/M$2)/2^(B106-1)</f>
         <v>979.82671178158569</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="I106" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J106" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>03D3</v>
+      </c>
+      <c r="K106" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>03DA</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17">
       <c r="A107" s="2" t="s">
         <v>6</v>
       </c>
@@ -3609,12 +4807,24 @@
       <c r="G107" s="3">
         <v>3600</v>
       </c>
-      <c r="I107" s="6">
-        <f t="shared" si="2"/>
+      <c r="H107" s="6">
+        <f>((144*F107*(2^20))/M$2)/2^(B107-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="17">
+      <c r="I107" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J107" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>040E</v>
+      </c>
+      <c r="K107" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0415</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17">
       <c r="A108" s="2" t="s">
         <v>6</v>
       </c>
@@ -3636,12 +4846,24 @@
       <c r="G108" s="3">
         <v>3700</v>
       </c>
-      <c r="I108" s="6">
-        <f t="shared" si="2"/>
+      <c r="H108" s="6">
+        <f>((144*F108*(2^20))/M$2)/2^(B108-1)</f>
         <v>1099.8182978945777</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J108" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>044B</v>
+      </c>
+      <c r="K108" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -3663,12 +4885,24 @@
       <c r="G109" s="3">
         <v>3800</v>
       </c>
-      <c r="I109" s="6">
-        <f t="shared" si="2"/>
+      <c r="H109" s="6">
+        <f>((144*F109*(2^20))/M$2)/2^(B109-1)</f>
         <v>1165.2168971203707</v>
       </c>
-    </row>
-    <row r="110" spans="1:9">
+      <c r="I109" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>0007</v>
+      </c>
+      <c r="J109" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>048D</v>
+      </c>
+      <c r="K109" s="13" t="str">
+        <f t="shared" si="5"/>
+        <v>0494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="17">
       <c r="A110" s="2" t="s">
         <v>6</v>
       </c>
@@ -3690,12 +4924,15 @@
       <c r="G110" s="3">
         <v>3900</v>
       </c>
-      <c r="I110" s="6">
-        <f t="shared" si="2"/>
+      <c r="H110" s="6">
+        <f>((144*F110*(2^20))/M$2)/2^(B110-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="17">
+      <c r="I110" s="9"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="1:11" ht="17">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -3717,12 +4954,15 @@
       <c r="G111" s="3">
         <v>4000</v>
       </c>
-      <c r="I111" s="6">
-        <f t="shared" si="2"/>
+      <c r="H111" s="6">
+        <f>((144*F111*(2^20))/M$2)/2^(B111-1)</f>
         <v>653.95587253321719</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="I111" s="9"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="1:11" ht="17">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -3744,12 +4984,15 @@
       <c r="G112" s="3">
         <v>4100</v>
       </c>
-      <c r="I112" s="6">
-        <f t="shared" si="2"/>
+      <c r="H112" s="6">
+        <f>((144*F112*(2^20))/M$2)/2^(B112-1)</f>
         <v>692.84211228846493</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="17">
+      <c r="I112" s="9"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="1:11" ht="17">
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
@@ -3771,12 +5014,15 @@
       <c r="G113" s="3">
         <v>4200</v>
       </c>
-      <c r="I113" s="6">
-        <f t="shared" si="2"/>
+      <c r="H113" s="6">
+        <f>((144*F113*(2^20))/M$2)/2^(B113-1)</f>
         <v>734.04064818757138</v>
       </c>
-    </row>
-    <row r="114" spans="1:9">
+      <c r="I113" s="9"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="1:11" ht="17">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3798,12 +5044,15 @@
       <c r="G114" s="3">
         <v>4300</v>
       </c>
-      <c r="I114" s="6">
-        <f t="shared" si="2"/>
+      <c r="H114" s="6">
+        <f>((144*F114*(2^20))/M$2)/2^(B114-1)</f>
         <v>777.68897651430359</v>
       </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114" s="9"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="1:11" ht="17">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
@@ -3825,12 +5074,15 @@
       <c r="G115" s="3">
         <v>4400</v>
       </c>
-      <c r="I115" s="6">
-        <f t="shared" si="2"/>
+      <c r="H115" s="6">
+        <f>((144*F115*(2^20))/M$2)/2^(B115-1)</f>
         <v>823.932769506966</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="17">
+      <c r="I115" s="9"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="1:11" ht="17">
       <c r="A116" s="2" t="s">
         <v>6</v>
       </c>
@@ -3852,12 +5104,15 @@
       <c r="G116" s="3">
         <v>4500</v>
       </c>
-      <c r="I116" s="6">
-        <f t="shared" si="2"/>
+      <c r="H116" s="6">
+        <f>((144*F116*(2^20))/M$2)/2^(B116-1)</f>
         <v>872.92636152587556</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="I116" s="9"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="1:11" ht="17">
       <c r="A117" s="2" t="s">
         <v>6</v>
       </c>
@@ -3879,12 +5134,15 @@
       <c r="G117" s="3">
         <v>4600</v>
       </c>
-      <c r="I117" s="6">
-        <f t="shared" si="2"/>
+      <c r="H117" s="6">
+        <f>((144*F117*(2^20))/M$2)/2^(B117-1)</f>
         <v>872.92636152587556</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="17">
+      <c r="I117" s="9"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="1:11" ht="17">
       <c r="A118" s="2" t="s">
         <v>6</v>
       </c>
@@ -3906,12 +5164,15 @@
       <c r="G118" s="3">
         <v>4700</v>
       </c>
-      <c r="I118" s="6">
-        <f t="shared" si="2"/>
+      <c r="H118" s="6">
+        <f>((144*F118*(2^20))/M$2)/2^(B118-1)</f>
         <v>979.82671178157102</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="I118" s="9"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="1:11" ht="17">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -3933,12 +5194,15 @@
       <c r="G119" s="3">
         <v>4800</v>
       </c>
-      <c r="I119" s="6">
-        <f t="shared" si="2"/>
+      <c r="H119" s="6">
+        <f>((144*F119*(2^20))/M$2)/2^(B119-1)</f>
         <v>1038.09024</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="17">
+      <c r="I119" s="9"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" ht="17">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -3960,12 +5224,15 @@
       <c r="G120" s="3">
         <v>4900</v>
       </c>
-      <c r="I120" s="6">
-        <f t="shared" si="2"/>
+      <c r="H120" s="6">
+        <f>((144*F120*(2^20))/M$2)/2^(B120-1)</f>
         <v>1099.8182978945777</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="I120" s="9"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" ht="17">
       <c r="A121" s="2" t="s">
         <v>6</v>
       </c>
@@ -3987,12 +5254,15 @@
       <c r="G121" s="3">
         <v>5000</v>
       </c>
-      <c r="I121" s="6">
-        <f t="shared" si="2"/>
+      <c r="H121" s="6">
+        <f>((144*F121*(2^20))/M$2)/2^(B121-1)</f>
         <v>1165.2168971203707</v>
       </c>
-    </row>
-    <row r="122" spans="1:9">
+      <c r="I121" s="9"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" ht="17">
       <c r="A122" s="2" t="s">
         <v>6</v>
       </c>
@@ -4014,12 +5284,15 @@
       <c r="G122" s="3">
         <v>5100</v>
       </c>
-      <c r="I122" s="6">
-        <f t="shared" si="2"/>
+      <c r="H122" s="6">
+        <f>((144*F122*(2^20))/M$2)/2^(B122-1)</f>
         <v>617.25214971144442</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="17">
+      <c r="I122" s="9"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="1:11" ht="17">
       <c r="A123" s="2" t="s">
         <v>6</v>
       </c>
@@ -4041,12 +5314,15 @@
       <c r="G123" s="3">
         <v>5200</v>
       </c>
-      <c r="I123" s="6">
-        <f t="shared" si="2"/>
+      <c r="H123" s="6">
+        <f>((144*F123*(2^20))/M$2)/2^(B123-1)</f>
         <v>653.9558725332098</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="I123" s="9"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:11" ht="17">
       <c r="A124" s="2" t="s">
         <v>6</v>
       </c>
@@ -4068,12 +5344,15 @@
       <c r="G124" s="3">
         <v>5300</v>
       </c>
-      <c r="I124" s="6">
-        <f t="shared" si="2"/>
+      <c r="H124" s="6">
+        <f>((144*F124*(2^20))/M$2)/2^(B124-1)</f>
         <v>692.84211228846493</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="17">
+      <c r="I124" s="9"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" ht="17">
       <c r="A125" s="2" t="s">
         <v>6</v>
       </c>
@@ -4095,12 +5374,15 @@
       <c r="G125" s="3">
         <v>5400</v>
       </c>
-      <c r="I125" s="6">
-        <f t="shared" si="2"/>
+      <c r="H125" s="6">
+        <f>((144*F125*(2^20))/M$2)/2^(B125-1)</f>
         <v>734.04064818757138</v>
       </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125" s="9"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="1:11" ht="17">
       <c r="A126" s="2" t="s">
         <v>6</v>
       </c>
@@ -4122,12 +5404,15 @@
       <c r="G126" s="3">
         <v>5500</v>
       </c>
-      <c r="I126" s="6">
-        <f t="shared" si="2"/>
+      <c r="H126" s="6">
+        <f>((144*F126*(2^20))/M$2)/2^(B126-1)</f>
         <v>777.68897651430359</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" s="9"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" ht="17">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
@@ -4149,12 +5434,15 @@
       <c r="G127" s="3">
         <v>5600</v>
       </c>
-      <c r="I127" s="6">
-        <f t="shared" si="2"/>
+      <c r="H127" s="6">
+        <f>((144*F127*(2^20))/M$2)/2^(B127-1)</f>
         <v>823.93276950695861</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="17">
+      <c r="I127" s="9"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:11" ht="17">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
@@ -4176,12 +5464,15 @@
       <c r="G128" s="3">
         <v>5700</v>
       </c>
-      <c r="I128" s="6">
-        <f t="shared" si="2"/>
+      <c r="H128" s="6">
+        <f>((144*F128*(2^20))/M$2)/2^(B128-1)</f>
         <v>872.92636152586817</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="I128" s="9"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" ht="17">
       <c r="A129" s="2" t="s">
         <v>6</v>
       </c>
@@ -4203,10 +5494,13 @@
       <c r="G129" s="3">
         <v>5800</v>
       </c>
-      <c r="I129" s="6">
-        <f t="shared" si="2"/>
+      <c r="H129" s="6">
+        <f>((144*F129*(2^20))/M$2)/2^(B129-1)</f>
         <v>924.83326412999895</v>
       </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
